--- a/reference/OID全表CodeSystemTable_20231022.xlsx
+++ b/reference/OID全表CodeSystemTable_20231022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789B536C-57F1-BA45-815D-56F06BAC21CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9358A84F-3485-854D-A4DA-7527ADDDCBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36640" yWindow="460" windowWidth="31720" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52000" yWindow="3040" windowWidth="31720" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2028,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:L44"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/reference/OID全表CodeSystemTable_20231022.xlsx
+++ b/reference/OID全表CodeSystemTable_20231022.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9358A84F-3485-854D-A4DA-7527ADDDCBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4F8029-02F1-B344-94FC-57A655FC282D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52000" yWindow="3040" windowWidth="31720" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="2520" windowWidth="31720" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$78:$E$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$79:$E$87</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$A$1:$B$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="297">
   <si>
     <t>医科診療行為マスター</t>
   </si>
@@ -1493,6 +1492,20 @@
   </si>
   <si>
     <t>1.2.392.200119.4.101.6</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>派生医薬品コード（共有サービス）</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ハセイ </t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t xml:space="preserve">イヤクヒｎ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/mhlw/CodeSystem/YJ9ZZZ</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2026,10 +2039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2045,7 +2058,7 @@
     <col min="9" max="9" width="5.7109375" style="4" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" style="4" customWidth="1"/>
     <col min="11" max="11" width="58.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="22.5703125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="40.140625" style="4" customWidth="1"/>
     <col min="13" max="13" width="11.85546875" style="19" customWidth="1"/>
     <col min="14" max="14" width="36.7109375" style="3" customWidth="1"/>
     <col min="15" max="16384" width="10.7109375" style="4"/>
@@ -3200,51 +3213,43 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="26" customHeight="1">
-      <c r="A67" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L67" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="M67" s="21"/>
+    <row r="67" spans="1:15" s="13" customFormat="1" ht="26" customHeight="1">
+      <c r="E67" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="K67" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="M67" s="22"/>
+      <c r="N67" s="14"/>
     </row>
     <row r="68" spans="1:15" ht="26" customHeight="1">
       <c r="A68" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="L68" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="O68" s="7" t="s">
-        <v>136</v>
-      </c>
+      <c r="E68" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M68" s="21"/>
     </row>
     <row r="69" spans="1:15" ht="26" customHeight="1">
       <c r="A69" s="4" t="s">
         <v>283</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="K69" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="L69" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="M69" s="21"/>
+        <v>116</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="O69" s="7" t="s">
-        <v>279</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="26" customHeight="1">
@@ -3252,16 +3257,17 @@
         <v>283</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K70" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="L70" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="M70" s="19">
-        <v>2</v>
+        <v>185</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="M70" s="21"/>
+      <c r="O70" s="7" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="26" customHeight="1">
@@ -3269,13 +3275,16 @@
         <v>283</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>193</v>
+        <v>120</v>
+      </c>
+      <c r="K71" s="16" t="s">
+        <v>192</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>122</v>
+        <v>290</v>
+      </c>
+      <c r="M71" s="19">
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="26" customHeight="1">
@@ -3283,16 +3292,13 @@
         <v>283</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="O72" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="26" customHeight="1">
@@ -3300,19 +3306,16 @@
         <v>283</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>189</v>
+        <v>123</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="N73" s="3" t="s">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="26" customHeight="1">
@@ -3320,16 +3323,19 @@
         <v>283</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>289</v>
+        <v>125</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
+      </c>
+      <c r="O74" s="7" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="26" customHeight="1">
@@ -3337,16 +3343,16 @@
         <v>283</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="M75" s="19">
-        <v>1</v>
+        <v>289</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="26" customHeight="1">
@@ -3354,13 +3360,13 @@
         <v>283</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M76" s="19">
         <v>1</v>
@@ -3371,49 +3377,52 @@
         <v>283</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>128</v>
+        <v>198</v>
+      </c>
+      <c r="M77" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="26" customHeight="1">
       <c r="A78" s="4" t="s">
         <v>283</v>
       </c>
+      <c r="E78" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="79" spans="1:15" ht="26" customHeight="1">
       <c r="A79" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E79" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="L79" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="M79" s="19">
-        <v>2</v>
-      </c>
     </row>
     <row r="80" spans="1:15" ht="26" customHeight="1">
       <c r="A80" s="4" t="s">
         <v>283</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>208</v>
+        <v>150</v>
+      </c>
+      <c r="M80" s="19">
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="26" customHeight="1">
@@ -3421,13 +3430,13 @@
         <v>283</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="26" customHeight="1">
@@ -3435,10 +3444,13 @@
         <v>283</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>211</v>
+        <v>146</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="26" customHeight="1">
@@ -3446,13 +3458,10 @@
         <v>283</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="L83" s="4" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="26" customHeight="1">
@@ -3460,13 +3469,13 @@
         <v>283</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="26" customHeight="1">
@@ -3474,16 +3483,13 @@
         <v>283</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="K85" s="16" t="s">
-        <v>219</v>
+        <v>216</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="M85" s="19">
-        <v>2</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="26" customHeight="1">
@@ -3491,13 +3497,13 @@
         <v>283</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="K86" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M86" s="19">
         <v>2</v>
@@ -3507,25 +3513,25 @@
       <c r="A87" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>206</v>
+      <c r="E87" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K87" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="M87" s="19">
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="26" customHeight="1">
       <c r="A88" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E88" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="K88" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="L88" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="M88" s="19">
-        <v>1</v>
+      <c r="C88" s="4" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="26" customHeight="1">
@@ -3533,13 +3539,13 @@
         <v>283</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M89" s="19">
         <v>1</v>
@@ -3550,13 +3556,16 @@
         <v>283</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>148</v>
+        <v>131</v>
+      </c>
+      <c r="M90" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="26" customHeight="1">
@@ -3564,39 +3573,53 @@
         <v>283</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>203</v>
       </c>
+      <c r="L91" s="4" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="92" spans="1:14" ht="26" customHeight="1">
       <c r="A92" s="4" t="s">
         <v>283</v>
       </c>
       <c r="E92" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="26" customHeight="1">
+      <c r="A93" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="K92" s="4" t="s">
+      <c r="K93" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="L92" s="4" t="s">
+      <c r="L93" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="M92" s="19">
+      <c r="M93" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="24" customHeight="1"/>
-    <row r="94" spans="1:14">
-      <c r="L94" s="9"/>
-      <c r="M94" s="23"/>
-      <c r="N94" s="12"/>
-    </row>
+    <row r="94" spans="1:14" ht="24" customHeight="1"/>
     <row r="95" spans="1:14">
       <c r="L95" s="9"/>
       <c r="M95" s="23"/>
       <c r="N95" s="12"/>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="L96" s="9"/>
+      <c r="M96" s="23"/>
+      <c r="N96" s="12"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:B54">
@@ -3606,11 +3629,12 @@
   <hyperlinks>
     <hyperlink ref="K48" r:id="rId1" xr:uid="{221E3491-6867-C948-A826-ACA9D3980D9D}"/>
     <hyperlink ref="K39" r:id="rId2" xr:uid="{37B370B0-4619-A04E-BC98-EBB2E1270F7C}"/>
-    <hyperlink ref="K85" r:id="rId3" xr:uid="{504A0358-757E-7842-9485-8F07B027C6B9}"/>
-    <hyperlink ref="K86" r:id="rId4" xr:uid="{34BEC03A-CD36-1C42-9832-BFD6FD01C46D}"/>
-    <hyperlink ref="K70" r:id="rId5" xr:uid="{5B334A2B-E0D8-DE4A-AB6B-159CA509C974}"/>
+    <hyperlink ref="K86" r:id="rId3" xr:uid="{504A0358-757E-7842-9485-8F07B027C6B9}"/>
+    <hyperlink ref="K87" r:id="rId4" xr:uid="{34BEC03A-CD36-1C42-9832-BFD6FD01C46D}"/>
+    <hyperlink ref="K71" r:id="rId5" xr:uid="{5B334A2B-E0D8-DE4A-AB6B-159CA509C974}"/>
     <hyperlink ref="K53" r:id="rId6" xr:uid="{F5AEE579-BA96-7941-8396-3D9C951F994E}"/>
-    <hyperlink ref="K69" r:id="rId7" xr:uid="{96D629AB-7993-A64A-A97A-4C79A24C898C}"/>
+    <hyperlink ref="K70" r:id="rId7" xr:uid="{96D629AB-7993-A64A-A97A-4C79A24C898C}"/>
+    <hyperlink ref="K67" r:id="rId8" xr:uid="{611F4883-88BE-1B41-B9D4-DA1073B877C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
